--- a/contratos/contratos-3-2021.xlsx
+++ b/contratos/contratos-3-2021.xlsx
@@ -1129,7 +1129,7 @@
     <t>GALARZA HOGAR S.A.</t>
   </si>
   <si>
-    <t>PALACIOS, GERMAN ALEJANDRO</t>
+    <t>PALACIOS. GERMAN ALEJANDRO</t>
   </si>
   <si>
     <t>VAZQUEZ AVALOS GUSTAVO ARSENIO</t>
@@ -1147,7 +1147,7 @@
     <t>AGUILAR DANIEL ANTONIO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOIERO S.A</t>
@@ -1177,7 +1177,7 @@
     <t>GUSTAVO GAILLARD Y NERIS GAILLARD S.H.</t>
   </si>
   <si>
-    <t>ODIARD, OSCAR HERNAN</t>
+    <t>ODIARD. OSCAR HERNAN</t>
   </si>
   <si>
     <t>SCEVOLA MAURICIO OSVALDO</t>
@@ -1267,7 +1267,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1300,7 +1300,7 @@
     <t>PALMA RODOLFO GABRIEL</t>
   </si>
   <si>
-    <t>RONDONI, LUCIANO MATIAS</t>
+    <t>RONDONI. LUCIANO MATIAS</t>
   </si>
   <si>
     <t>FRIAS SUSANA IRMA</t>
@@ -1336,7 +1336,7 @@
     <t>PARRAVICINI VIRGINIA VANINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>BENEDETTI MIGUEL ANGEL</t>
@@ -1510,7 +1510,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1687,7 +1687,7 @@
     <t>HERLEIN GERARDO ANTONIO</t>
   </si>
   <si>
-    <t xml:space="preserve">HORIZONTE GASES SRL, </t>
+    <t xml:space="preserve">HORIZONTE GASES SRL. </t>
   </si>
   <si>
     <t>POGGIO JULIO OSCAR</t>
@@ -1696,7 +1696,7 @@
     <t>SALPER CONSTRUCTORA S.R.L.</t>
   </si>
   <si>
-    <t>SCHMIDT, MARCELO FABIAN</t>
+    <t>SCHMIDT. MARCELO FABIAN</t>
   </si>
   <si>
     <t>SUCESION DE BERWART JUAN CARLOS</t>
@@ -1936,7 +1936,7 @@
     <t>METALURGICA URUGUAY</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t>TRANSAGRO</t>
@@ -1987,7 +1987,7 @@
     <t>RADIO LA KE BUENA</t>
   </si>
   <si>
-    <t>PEREZ MENENDEZ, MARIA GABRIELA</t>
+    <t>PEREZ MENENDEZ. MARIA GABRIELA</t>
   </si>
   <si>
     <t>RTA ( LT 11 )</t>
@@ -2221,1021 +2221,1021 @@
     <t>213</t>
   </si>
   <si>
-    <t>7.180,00</t>
-  </si>
-  <si>
-    <t>192.000,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>762.663,00</t>
-  </si>
-  <si>
-    <t>9.330,00</t>
-  </si>
-  <si>
-    <t>1.730.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>1.044,00</t>
-  </si>
-  <si>
-    <t>1.630,97</t>
-  </si>
-  <si>
-    <t>226.718,48</t>
-  </si>
-  <si>
-    <t>4.790,14</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>11.470,00</t>
-  </si>
-  <si>
-    <t>2.470.760,80</t>
-  </si>
-  <si>
-    <t>58.304,00</t>
-  </si>
-  <si>
-    <t>384.450,00</t>
-  </si>
-  <si>
-    <t>49.273,00</t>
-  </si>
-  <si>
-    <t>134.178,00</t>
-  </si>
-  <si>
-    <t>534.064,00</t>
-  </si>
-  <si>
-    <t>19.060,00</t>
-  </si>
-  <si>
-    <t>23.700,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.480,00</t>
-  </si>
-  <si>
-    <t>927.916,00</t>
-  </si>
-  <si>
-    <t>20.338,90</t>
-  </si>
-  <si>
-    <t>57.106,62</t>
-  </si>
-  <si>
-    <t>44.874,00</t>
-  </si>
-  <si>
-    <t>308.512,00</t>
-  </si>
-  <si>
-    <t>123.594,93</t>
-  </si>
-  <si>
-    <t>41.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>64.100,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>352,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>11.740,00</t>
-  </si>
-  <si>
-    <t>2.205,00</t>
-  </si>
-  <si>
-    <t>1.036,80</t>
-  </si>
-  <si>
-    <t>38.280,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>7.066.421,81</t>
-  </si>
-  <si>
-    <t>338.005,73</t>
-  </si>
-  <si>
-    <t>699.000,00</t>
-  </si>
-  <si>
-    <t>65.926,35</t>
-  </si>
-  <si>
-    <t>240.258,98</t>
-  </si>
-  <si>
-    <t>1.920.000,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>27,40</t>
-  </si>
-  <si>
-    <t>80.007,80</t>
-  </si>
-  <si>
-    <t>64.194,32</t>
-  </si>
-  <si>
-    <t>18.407,00</t>
-  </si>
-  <si>
-    <t>115.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>140.000,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>162.136,92</t>
-  </si>
-  <si>
-    <t>1.300.000,00</t>
-  </si>
-  <si>
-    <t>2.409,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>26.559,55</t>
-  </si>
-  <si>
-    <t>1.415,34</t>
-  </si>
-  <si>
-    <t>53.323,19</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>6.890,00</t>
-  </si>
-  <si>
-    <t>28.078,67</t>
-  </si>
-  <si>
-    <t>1.299,20</t>
-  </si>
-  <si>
-    <t>32.411,58</t>
-  </si>
-  <si>
-    <t>2.030,00</t>
-  </si>
-  <si>
-    <t>418,42</t>
-  </si>
-  <si>
-    <t>708,00</t>
-  </si>
-  <si>
-    <t>332,50</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>299.418,25</t>
-  </si>
-  <si>
-    <t>1.389,00</t>
-  </si>
-  <si>
-    <t>5.557,76</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>15.393,57</t>
-  </si>
-  <si>
-    <t>197.600,04</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>19.200,00</t>
-  </si>
-  <si>
-    <t>46.450,00</t>
-  </si>
-  <si>
-    <t>16.949,78</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>68.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>207.740,00</t>
-  </si>
-  <si>
-    <t>21.200,00</t>
-  </si>
-  <si>
-    <t>2.632,17</t>
-  </si>
-  <si>
-    <t>41.734,60</t>
-  </si>
-  <si>
-    <t>12.705,00</t>
-  </si>
-  <si>
-    <t>2.586,44</t>
-  </si>
-  <si>
-    <t>2.149,87</t>
-  </si>
-  <si>
-    <t>16.900,00</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>42.148,80</t>
-  </si>
-  <si>
-    <t>35.595,00</t>
-  </si>
-  <si>
-    <t>14.980,00</t>
-  </si>
-  <si>
-    <t>283.850,00</t>
-  </si>
-  <si>
-    <t>5.070,60</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>17.900,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>83.960,00</t>
-  </si>
-  <si>
-    <t>52.399,66</t>
-  </si>
-  <si>
-    <t>30.375,00</t>
-  </si>
-  <si>
-    <t>114.010,00</t>
-  </si>
-  <si>
-    <t>23.970,00</t>
-  </si>
-  <si>
-    <t>741,90</t>
-  </si>
-  <si>
-    <t>294.840,00</t>
-  </si>
-  <si>
-    <t>96.106,00</t>
-  </si>
-  <si>
-    <t>132.640,00</t>
-  </si>
-  <si>
-    <t>2.670,00</t>
-  </si>
-  <si>
-    <t>590,20</t>
-  </si>
-  <si>
-    <t>1.258.740,00</t>
-  </si>
-  <si>
-    <t>3.672,00</t>
-  </si>
-  <si>
-    <t>44.156,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>232.000,00</t>
-  </si>
-  <si>
-    <t>12.580,00</t>
-  </si>
-  <si>
-    <t>97.050,47</t>
-  </si>
-  <si>
-    <t>17.650,00</t>
-  </si>
-  <si>
-    <t>93.434,60</t>
-  </si>
-  <si>
-    <t>94.874,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>3.470,00</t>
-  </si>
-  <si>
-    <t>32.895,92</t>
-  </si>
-  <si>
-    <t>6.498,00</t>
-  </si>
-  <si>
-    <t>36.173,43</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>69.503,32</t>
-  </si>
-  <si>
-    <t>25.350,00</t>
-  </si>
-  <si>
-    <t>42.289,12</t>
-  </si>
-  <si>
-    <t>23.100,00</t>
-  </si>
-  <si>
-    <t>1.558,80</t>
-  </si>
-  <si>
-    <t>29.750,00</t>
-  </si>
-  <si>
-    <t>6.350,00</t>
-  </si>
-  <si>
-    <t>2.296,62</t>
-  </si>
-  <si>
-    <t>218,92</t>
-  </si>
-  <si>
-    <t>17.053,08</t>
-  </si>
-  <si>
-    <t>9.668,00</t>
-  </si>
-  <si>
-    <t>333.600,00</t>
-  </si>
-  <si>
-    <t>56.108,65</t>
-  </si>
-  <si>
-    <t>1.885,00</t>
-  </si>
-  <si>
-    <t>12.006,00</t>
-  </si>
-  <si>
-    <t>10.850,00</t>
-  </si>
-  <si>
-    <t>2.404,77</t>
-  </si>
-  <si>
-    <t>7.650,00</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>68.572,43</t>
-  </si>
-  <si>
-    <t>2.269,98</t>
-  </si>
-  <si>
-    <t>5.700,00</t>
-  </si>
-  <si>
-    <t>3.833,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>1.219,00</t>
-  </si>
-  <si>
-    <t>48.731,90</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>99.890,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>17.100,00</t>
-  </si>
-  <si>
-    <t>7.890,00</t>
-  </si>
-  <si>
-    <t>6.150,00</t>
-  </si>
-  <si>
-    <t>8.035,85</t>
-  </si>
-  <si>
-    <t>16.940,00</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>16.830,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>9.193,24</t>
-  </si>
-  <si>
-    <t>176.900,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>23.550,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>29.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>82.000,00</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>26.500,00</t>
-  </si>
-  <si>
-    <t>56.000,00</t>
-  </si>
-  <si>
-    <t>1.089.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>31.429,84</t>
-  </si>
-  <si>
-    <t>2.777,28</t>
-  </si>
-  <si>
-    <t>68.794,00</t>
-  </si>
-  <si>
-    <t>68.539,10</t>
-  </si>
-  <si>
-    <t>56.527,05</t>
-  </si>
-  <si>
-    <t>52.305,00</t>
-  </si>
-  <si>
-    <t>262,74</t>
-  </si>
-  <si>
-    <t>54.956,00</t>
-  </si>
-  <si>
-    <t>2.390,66</t>
-  </si>
-  <si>
-    <t>1.430,00</t>
-  </si>
-  <si>
-    <t>20.906,24</t>
-  </si>
-  <si>
-    <t>9.117,78</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>50.600,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>189.282,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>20.650,00</t>
-  </si>
-  <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>51.000,00</t>
-  </si>
-  <si>
-    <t>84.500,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>62.610,00</t>
-  </si>
-  <si>
-    <t>96.000,00</t>
-  </si>
-  <si>
-    <t>59.400,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>27.600,00</t>
-  </si>
-  <si>
-    <t>67.780,00</t>
-  </si>
-  <si>
-    <t>39.600,00</t>
-  </si>
-  <si>
-    <t>16.400,00</t>
-  </si>
-  <si>
-    <t>78.455,00</t>
-  </si>
-  <si>
-    <t>134.500,00</t>
-  </si>
-  <si>
-    <t>41.400,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>165.000,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>17.450,00</t>
-  </si>
-  <si>
-    <t>38.811,54</t>
-  </si>
-  <si>
-    <t>108.620,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>13.553,02</t>
-  </si>
-  <si>
-    <t>48.700,00</t>
-  </si>
-  <si>
-    <t>138.080,00</t>
-  </si>
-  <si>
-    <t>28.620,00</t>
-  </si>
-  <si>
-    <t>5.096,52</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>19.360,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>3.280,00</t>
-  </si>
-  <si>
-    <t>178.268,60</t>
-  </si>
-  <si>
-    <t>15.674,34</t>
-  </si>
-  <si>
-    <t>73.075,00</t>
-  </si>
-  <si>
-    <t>25.944,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>26.100,00</t>
-  </si>
-  <si>
-    <t>43.394,00</t>
-  </si>
-  <si>
-    <t>122.698,00</t>
-  </si>
-  <si>
-    <t>26.360,68</t>
-  </si>
-  <si>
-    <t>5.450,00</t>
-  </si>
-  <si>
-    <t>1.185,86</t>
-  </si>
-  <si>
-    <t>17.620,00</t>
-  </si>
-  <si>
-    <t>13.090,00</t>
-  </si>
-  <si>
-    <t>1.117.670,00</t>
-  </si>
-  <si>
-    <t>1.724,66</t>
-  </si>
-  <si>
-    <t>5.389,20</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>657,32</t>
-  </si>
-  <si>
-    <t>309.900,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>138.058,86</t>
-  </si>
-  <si>
-    <t>49.740,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>36.400,00</t>
-  </si>
-  <si>
-    <t>11.560,00</t>
-  </si>
-  <si>
-    <t>14.200,00</t>
-  </si>
-  <si>
-    <t>11.800,00</t>
-  </si>
-  <si>
-    <t>121.402,68</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>319.650,00</t>
-  </si>
-  <si>
-    <t>14.520,00</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>20.727.707,38</t>
-  </si>
-  <si>
-    <t>24.800,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>37.600,00</t>
-  </si>
-  <si>
-    <t>10.032,00</t>
-  </si>
-  <si>
-    <t>855.000,00</t>
-  </si>
-  <si>
-    <t>25.608.806,69</t>
-  </si>
-  <si>
-    <t>5.217.871,70</t>
-  </si>
-  <si>
-    <t>467.890,00</t>
-  </si>
-  <si>
-    <t>407.990,00</t>
-  </si>
-  <si>
-    <t>377.950,00</t>
-  </si>
-  <si>
-    <t>355.000,00</t>
-  </si>
-  <si>
-    <t>408.040,00</t>
-  </si>
-  <si>
-    <t>678.000,00</t>
-  </si>
-  <si>
-    <t>937.120,00</t>
-  </si>
-  <si>
-    <t>1.053.000,00</t>
-  </si>
-  <si>
-    <t>595.180,00</t>
-  </si>
-  <si>
-    <t>710.000,00</t>
-  </si>
-  <si>
-    <t>768.140,00</t>
-  </si>
-  <si>
-    <t>703.500,00</t>
-  </si>
-  <si>
-    <t>1.047.920,00</t>
-  </si>
-  <si>
-    <t>737.500,00</t>
-  </si>
-  <si>
-    <t>1.068.460,00</t>
-  </si>
-  <si>
-    <t>390.940,00</t>
-  </si>
-  <si>
-    <t>239.500,00</t>
-  </si>
-  <si>
-    <t>1.908.731,92</t>
-  </si>
-  <si>
-    <t>8.646.000,00</t>
-  </si>
-  <si>
-    <t>25.300,00</t>
-  </si>
-  <si>
-    <t>1.800.000,00</t>
-  </si>
-  <si>
-    <t>33.539.728,35</t>
-  </si>
-  <si>
-    <t>442.240,34</t>
-  </si>
-  <si>
-    <t>33.248.548,39</t>
-  </si>
-  <si>
-    <t>369.000,00</t>
-  </si>
-  <si>
-    <t>161.000,00</t>
-  </si>
-  <si>
-    <t>1.080.000,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>363.000,00</t>
-  </si>
-  <si>
-    <t>21.999,96</t>
-  </si>
-  <si>
-    <t>12.895,68</t>
-  </si>
-  <si>
-    <t>73.000,00</t>
-  </si>
-  <si>
-    <t>262.542,00</t>
-  </si>
-  <si>
-    <t>10.974,00</t>
-  </si>
-  <si>
-    <t>502.800,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.988.000,00</t>
-  </si>
-  <si>
-    <t>290.000,00</t>
-  </si>
-  <si>
-    <t>9.268.790,00</t>
-  </si>
-  <si>
-    <t>17.550,00</t>
-  </si>
-  <si>
-    <t>95.615,00</t>
-  </si>
-  <si>
-    <t>245.000,00</t>
+    <t>7180.00</t>
+  </si>
+  <si>
+    <t>192000.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>762663.00</t>
+  </si>
+  <si>
+    <t>9330.00</t>
+  </si>
+  <si>
+    <t>1730000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>1044.00</t>
+  </si>
+  <si>
+    <t>1630.97</t>
+  </si>
+  <si>
+    <t>226718.48</t>
+  </si>
+  <si>
+    <t>4790.14</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>11470.00</t>
+  </si>
+  <si>
+    <t>2470760.80</t>
+  </si>
+  <si>
+    <t>58304.00</t>
+  </si>
+  <si>
+    <t>384450.00</t>
+  </si>
+  <si>
+    <t>49273.00</t>
+  </si>
+  <si>
+    <t>134178.00</t>
+  </si>
+  <si>
+    <t>534064.00</t>
+  </si>
+  <si>
+    <t>19060.00</t>
+  </si>
+  <si>
+    <t>23700.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2480.00</t>
+  </si>
+  <si>
+    <t>927916.00</t>
+  </si>
+  <si>
+    <t>20338.90</t>
+  </si>
+  <si>
+    <t>57106.62</t>
+  </si>
+  <si>
+    <t>44874.00</t>
+  </si>
+  <si>
+    <t>308512.00</t>
+  </si>
+  <si>
+    <t>123594.93</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>64100.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>352.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>11740.00</t>
+  </si>
+  <si>
+    <t>2205.00</t>
+  </si>
+  <si>
+    <t>1036.80</t>
+  </si>
+  <si>
+    <t>38280.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>7066421.81</t>
+  </si>
+  <si>
+    <t>338005.73</t>
+  </si>
+  <si>
+    <t>699000.00</t>
+  </si>
+  <si>
+    <t>65926.35</t>
+  </si>
+  <si>
+    <t>240258.98</t>
+  </si>
+  <si>
+    <t>1920000.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>27.40</t>
+  </si>
+  <si>
+    <t>80007.80</t>
+  </si>
+  <si>
+    <t>64194.32</t>
+  </si>
+  <si>
+    <t>18407.00</t>
+  </si>
+  <si>
+    <t>115000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>140000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>162136.92</t>
+  </si>
+  <si>
+    <t>1300000.00</t>
+  </si>
+  <si>
+    <t>2409.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>26559.55</t>
+  </si>
+  <si>
+    <t>1415.34</t>
+  </si>
+  <si>
+    <t>53323.19</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>6890.00</t>
+  </si>
+  <si>
+    <t>28078.67</t>
+  </si>
+  <si>
+    <t>1299.20</t>
+  </si>
+  <si>
+    <t>32411.58</t>
+  </si>
+  <si>
+    <t>2030.00</t>
+  </si>
+  <si>
+    <t>418.42</t>
+  </si>
+  <si>
+    <t>708.00</t>
+  </si>
+  <si>
+    <t>332.50</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>299418.25</t>
+  </si>
+  <si>
+    <t>1389.00</t>
+  </si>
+  <si>
+    <t>5557.76</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>15393.57</t>
+  </si>
+  <si>
+    <t>197600.04</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>19200.00</t>
+  </si>
+  <si>
+    <t>46450.00</t>
+  </si>
+  <si>
+    <t>16949.78</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>68000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>207740.00</t>
+  </si>
+  <si>
+    <t>21200.00</t>
+  </si>
+  <si>
+    <t>2632.17</t>
+  </si>
+  <si>
+    <t>41734.60</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>2586.44</t>
+  </si>
+  <si>
+    <t>2149.87</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>42148.80</t>
+  </si>
+  <si>
+    <t>35595.00</t>
+  </si>
+  <si>
+    <t>14980.00</t>
+  </si>
+  <si>
+    <t>283850.00</t>
+  </si>
+  <si>
+    <t>5070.60</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>17900.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>83960.00</t>
+  </si>
+  <si>
+    <t>52399.66</t>
+  </si>
+  <si>
+    <t>30375.00</t>
+  </si>
+  <si>
+    <t>114010.00</t>
+  </si>
+  <si>
+    <t>23970.00</t>
+  </si>
+  <si>
+    <t>741.90</t>
+  </si>
+  <si>
+    <t>294840.00</t>
+  </si>
+  <si>
+    <t>96106.00</t>
+  </si>
+  <si>
+    <t>132640.00</t>
+  </si>
+  <si>
+    <t>2670.00</t>
+  </si>
+  <si>
+    <t>590.20</t>
+  </si>
+  <si>
+    <t>1258740.00</t>
+  </si>
+  <si>
+    <t>3672.00</t>
+  </si>
+  <si>
+    <t>44156.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>232000.00</t>
+  </si>
+  <si>
+    <t>12580.00</t>
+  </si>
+  <si>
+    <t>97050.47</t>
+  </si>
+  <si>
+    <t>17650.00</t>
+  </si>
+  <si>
+    <t>93434.60</t>
+  </si>
+  <si>
+    <t>94874.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>3470.00</t>
+  </si>
+  <si>
+    <t>32895.92</t>
+  </si>
+  <si>
+    <t>6498.00</t>
+  </si>
+  <si>
+    <t>36173.43</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>69503.32</t>
+  </si>
+  <si>
+    <t>25350.00</t>
+  </si>
+  <si>
+    <t>42289.12</t>
+  </si>
+  <si>
+    <t>23100.00</t>
+  </si>
+  <si>
+    <t>1558.80</t>
+  </si>
+  <si>
+    <t>29750.00</t>
+  </si>
+  <si>
+    <t>6350.00</t>
+  </si>
+  <si>
+    <t>2296.62</t>
+  </si>
+  <si>
+    <t>218.92</t>
+  </si>
+  <si>
+    <t>17053.08</t>
+  </si>
+  <si>
+    <t>9668.00</t>
+  </si>
+  <si>
+    <t>333600.00</t>
+  </si>
+  <si>
+    <t>56108.65</t>
+  </si>
+  <si>
+    <t>1885.00</t>
+  </si>
+  <si>
+    <t>12006.00</t>
+  </si>
+  <si>
+    <t>10850.00</t>
+  </si>
+  <si>
+    <t>2404.77</t>
+  </si>
+  <si>
+    <t>7650.00</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>68572.43</t>
+  </si>
+  <si>
+    <t>2269.98</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>3833.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>1219.00</t>
+  </si>
+  <si>
+    <t>48731.90</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>99890.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>17100.00</t>
+  </si>
+  <si>
+    <t>7890.00</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>8035.85</t>
+  </si>
+  <si>
+    <t>16940.00</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>16830.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>9193.24</t>
+  </si>
+  <si>
+    <t>176900.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>23550.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>29000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>82000.00</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>56000.00</t>
+  </si>
+  <si>
+    <t>1089000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>31429.84</t>
+  </si>
+  <si>
+    <t>2777.28</t>
+  </si>
+  <si>
+    <t>68794.00</t>
+  </si>
+  <si>
+    <t>68539.10</t>
+  </si>
+  <si>
+    <t>56527.05</t>
+  </si>
+  <si>
+    <t>52305.00</t>
+  </si>
+  <si>
+    <t>262.74</t>
+  </si>
+  <si>
+    <t>54956.00</t>
+  </si>
+  <si>
+    <t>2390.66</t>
+  </si>
+  <si>
+    <t>1430.00</t>
+  </si>
+  <si>
+    <t>20906.24</t>
+  </si>
+  <si>
+    <t>9117.78</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>50600.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>189282.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>20650.00</t>
+  </si>
+  <si>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>51000.00</t>
+  </si>
+  <si>
+    <t>84500.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>62610.00</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>59400.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>67780.00</t>
+  </si>
+  <si>
+    <t>39600.00</t>
+  </si>
+  <si>
+    <t>16400.00</t>
+  </si>
+  <si>
+    <t>78455.00</t>
+  </si>
+  <si>
+    <t>134500.00</t>
+  </si>
+  <si>
+    <t>41400.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>165000.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>17450.00</t>
+  </si>
+  <si>
+    <t>38811.54</t>
+  </si>
+  <si>
+    <t>108620.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>13553.02</t>
+  </si>
+  <si>
+    <t>48700.00</t>
+  </si>
+  <si>
+    <t>138080.00</t>
+  </si>
+  <si>
+    <t>28620.00</t>
+  </si>
+  <si>
+    <t>5096.52</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>19360.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>3280.00</t>
+  </si>
+  <si>
+    <t>178268.60</t>
+  </si>
+  <si>
+    <t>15674.34</t>
+  </si>
+  <si>
+    <t>73075.00</t>
+  </si>
+  <si>
+    <t>25944.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>26100.00</t>
+  </si>
+  <si>
+    <t>43394.00</t>
+  </si>
+  <si>
+    <t>122698.00</t>
+  </si>
+  <si>
+    <t>26360.68</t>
+  </si>
+  <si>
+    <t>5450.00</t>
+  </si>
+  <si>
+    <t>1185.86</t>
+  </si>
+  <si>
+    <t>17620.00</t>
+  </si>
+  <si>
+    <t>13090.00</t>
+  </si>
+  <si>
+    <t>1117670.00</t>
+  </si>
+  <si>
+    <t>1724.66</t>
+  </si>
+  <si>
+    <t>5389.20</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>657.32</t>
+  </si>
+  <si>
+    <t>309900.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>138058.86</t>
+  </si>
+  <si>
+    <t>49740.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>36400.00</t>
+  </si>
+  <si>
+    <t>11560.00</t>
+  </si>
+  <si>
+    <t>14200.00</t>
+  </si>
+  <si>
+    <t>11800.00</t>
+  </si>
+  <si>
+    <t>121402.68</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>319650.00</t>
+  </si>
+  <si>
+    <t>14520.00</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>20727707.38</t>
+  </si>
+  <si>
+    <t>24800.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>37600.00</t>
+  </si>
+  <si>
+    <t>10032.00</t>
+  </si>
+  <si>
+    <t>855000.00</t>
+  </si>
+  <si>
+    <t>25608806.69</t>
+  </si>
+  <si>
+    <t>5217871.70</t>
+  </si>
+  <si>
+    <t>467890.00</t>
+  </si>
+  <si>
+    <t>407990.00</t>
+  </si>
+  <si>
+    <t>377950.00</t>
+  </si>
+  <si>
+    <t>355000.00</t>
+  </si>
+  <si>
+    <t>408040.00</t>
+  </si>
+  <si>
+    <t>678000.00</t>
+  </si>
+  <si>
+    <t>937120.00</t>
+  </si>
+  <si>
+    <t>1053000.00</t>
+  </si>
+  <si>
+    <t>595180.00</t>
+  </si>
+  <si>
+    <t>710000.00</t>
+  </si>
+  <si>
+    <t>768140.00</t>
+  </si>
+  <si>
+    <t>703500.00</t>
+  </si>
+  <si>
+    <t>1047920.00</t>
+  </si>
+  <si>
+    <t>737500.00</t>
+  </si>
+  <si>
+    <t>1068460.00</t>
+  </si>
+  <si>
+    <t>390940.00</t>
+  </si>
+  <si>
+    <t>239500.00</t>
+  </si>
+  <si>
+    <t>1908731.92</t>
+  </si>
+  <si>
+    <t>8646000.00</t>
+  </si>
+  <si>
+    <t>25300.00</t>
+  </si>
+  <si>
+    <t>1800000.00</t>
+  </si>
+  <si>
+    <t>33539728.35</t>
+  </si>
+  <si>
+    <t>442240.34</t>
+  </si>
+  <si>
+    <t>33248548.39</t>
+  </si>
+  <si>
+    <t>369000.00</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>1080000.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>363000.00</t>
+  </si>
+  <si>
+    <t>21999.96</t>
+  </si>
+  <si>
+    <t>12895.68</t>
+  </si>
+  <si>
+    <t>73000.00</t>
+  </si>
+  <si>
+    <t>262542.00</t>
+  </si>
+  <si>
+    <t>10974.00</t>
+  </si>
+  <si>
+    <t>502800.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1988000.00</t>
+  </si>
+  <si>
+    <t>290000.00</t>
+  </si>
+  <si>
+    <t>9268790.00</t>
+  </si>
+  <si>
+    <t>17550.00</t>
+  </si>
+  <si>
+    <t>95615.00</t>
+  </si>
+  <si>
+    <t>245000.00</t>
   </si>
 </sst>
 </file>
